--- a/data/income_statement/1digit/total/S_IS_TOTAL.xlsx
+++ b/data/income_statement/1digit/total/S_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>S-Other services activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>S-Other services activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>2158600.75055</v>
@@ -956,37 +862,42 @@
         <v>2536577.95203</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>3383862.33887</v>
+        <v>3384342.02451</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>3473849.20693</v>
+        <v>3475065.13948</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3597522.080370001</v>
+        <v>3605893.34979</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>3120284.67357</v>
+        <v>3135824.35637</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>3819473.74505</v>
+        <v>3840733.36419</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>4405828.971600001</v>
+        <v>4408961.071529999</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>5180567.429459999</v>
+        <v>5180567.42946</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>5874031.719359999</v>
+        <v>5906826.36366</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>6555271.403539999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>6720636.831850001</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>7231715.173</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>2011162.22176</v>
@@ -995,58 +906,63 @@
         <v>2379051.92052</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>3182036.77858</v>
+        <v>3182516.46422</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>3265917.52325</v>
+        <v>3267121.73445</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3284446.76329</v>
+        <v>3292545.56801</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2908436.16113</v>
+        <v>2922261.42495</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>3552393.58018</v>
+        <v>3572703.15052</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>4117644.48308</v>
+        <v>4120699.164040001</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>4848277.707820001</v>
+        <v>4848277.70782</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>5514927.447119999</v>
+        <v>5543526.0241</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>6111466.60865</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>6261170.28686</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>6688953.541</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>62558.87745</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>61923.32563</v>
+        <v>61923.32562999999</v>
       </c>
       <c r="E7" s="48" t="n">
         <v>84457.53669000001</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>82291.19872000001</v>
+        <v>82291.19872</v>
       </c>
       <c r="G7" s="48" t="n">
         <v>191943.00745</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>85224.05423000002</v>
+        <v>85584.22633999999</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>81225.72858</v>
+        <v>81407.28420000001</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>84248.95714</v>
@@ -1055,16 +971,21 @@
         <v>122289.84289</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>115446.00562</v>
+        <v>118727.69998</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>140634.04511</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>145978.32221</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>252207.891</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>84879.65133999998</v>
@@ -1076,34 +997,39 @@
         <v>117368.0236</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>125640.48496</v>
+        <v>125652.20631</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>121132.30963</v>
+        <v>121404.77433</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>126624.45821</v>
+        <v>127978.70508</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>185854.43629</v>
+        <v>186622.92947</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>203935.53138</v>
+        <v>204012.95035</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>209999.87875</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>243658.26662</v>
+        <v>244572.63958</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>303170.74978</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>313488.22278</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>290553.741</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>22405.54153</v>
@@ -1115,34 +1041,39 @@
         <v>29974.89626</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>19296.20107</v>
+        <v>19304.06463</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>27122.57571</v>
+        <v>27213.62699</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>23653.39311</v>
+        <v>23763.26308</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>48144.58732</v>
+        <v>48210.4548</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>34291.21895</v>
+        <v>34321.08381</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>35466.67855</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>47122.0177</v>
+        <v>47160.9621</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>69816.69093000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>70781.84806</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>78219.11599999999</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>14144.8712</v>
@@ -1154,16 +1085,16 @@
         <v>25213.47036</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>14899.60067</v>
+        <v>14907.46423</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>21721.77256</v>
+        <v>21812.82384</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>16187.24364</v>
+        <v>16296.79581</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>32401.35139</v>
+        <v>32467.21887</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>20201.10511</v>
@@ -1172,19 +1103,24 @@
         <v>30841.8017</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>41721.36008000001</v>
+        <v>41759.88203</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>64255.23088</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>64908.22015</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>72239.374</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>6708.974209999999</v>
+        <v>6708.97421</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>4290.302070000001</v>
@@ -1196,7 +1132,7 @@
         <v>3223.780690000001</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>4851.63718</v>
+        <v>4851.637180000001</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>6986.135149999999</v>
@@ -1205,22 +1141,27 @@
         <v>14587.27931</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>12591.86371</v>
+        <v>12621.72857</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>3150.20321</v>
+        <v>3150.203210000001</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>3568.23924</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>2155.72793</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>2183.21091</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>1334.783</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>1551.69612</v>
@@ -1229,7 +1170,7 @@
         <v>1346.60356</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>529.5749099999999</v>
+        <v>529.57491</v>
       </c>
       <c r="F12" s="48" t="n">
         <v>1172.81971</v>
@@ -1238,7 +1179,7 @@
         <v>549.16597</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>480.01432</v>
+        <v>480.33212</v>
       </c>
       <c r="I12" s="48" t="n">
         <v>1155.95662</v>
@@ -1250,16 +1191,21 @@
         <v>1474.67364</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>1832.41838</v>
+        <v>1832.84083</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>3405.73212</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>3690.417</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>4644.959</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>2136195.20902</v>
@@ -1268,37 +1214,42 @@
         <v>2513628.41009</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>3353887.44261</v>
+        <v>3354367.128250001</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>3454553.00586</v>
+        <v>3455761.07485</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3570399.50466</v>
+        <v>3578679.7228</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>3096631.28046</v>
+        <v>3112061.09329</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>3771329.157730001</v>
+        <v>3792522.90939</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>4371537.752649999</v>
+        <v>4374639.987720001</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>5145100.75091</v>
+        <v>5145100.750910001</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>5826909.701660001</v>
+        <v>5859665.40156</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>6485454.71261</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>6649854.983789999</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>7153496.057</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>1614491.04671</v>
@@ -1307,43 +1258,48 @@
         <v>1923339.15257</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>2645539.14407</v>
+        <v>2646050.23654</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2725446.500560001</v>
+        <v>2726068.53607</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2855572.52916</v>
+        <v>2862026.34058</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>2380333.10193</v>
+        <v>2392000.5526</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>2905458.46757</v>
+        <v>2918825.52165</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>3428288.94963</v>
+        <v>3430998.3846</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>4038903.2447</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>4673064.14249</v>
+        <v>4695713.58391</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>5122982.75055</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>5255262.082469999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>5780705.827</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>91453.55931</v>
+        <v>91453.55930999998</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>98218.02179000003</v>
+        <v>98218.02179</v>
       </c>
       <c r="E15" s="48" t="n">
         <v>157518.67929</v>
@@ -1352,13 +1308,13 @@
         <v>153540.64113</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>134419.67378</v>
+        <v>134457.52378</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>122520.78182</v>
+        <v>122725.87076</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>178080.85944</v>
+        <v>178510.80479</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>165619.03722</v>
@@ -1367,55 +1323,65 @@
         <v>237105.91963</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>192713.07444</v>
+        <v>194184.79703</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>220715.66027</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>227534.83637</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>273685.188</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>751441.2686</v>
+        <v>751441.2686000001</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>877824.04524</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>1304949.01925</v>
+        <v>1304951.66785</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1351319.17988</v>
+        <v>1351368.09112</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1446484.42188</v>
+        <v>1447266.79098</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>814807.54502</v>
+        <v>817588.69672</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1009984.09665</v>
+        <v>1017170.70056</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1347291.88009</v>
+        <v>1347344.23259</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>1509655.60271</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1598465.25526</v>
+        <v>1604777.2059</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1799483.54669</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1855620.68654</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>2450989.294</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>768859.1636</v>
@@ -1424,43 +1390,48 @@
         <v>940626.1381100001</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>1177089.78239</v>
+        <v>1177598.22626</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1210632.48358</v>
+        <v>1211205.60785</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1266058.48818</v>
+        <v>1271692.0805</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1426749.13614</v>
+        <v>1435430.34617</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1696486.2497</v>
+        <v>1702236.75452</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1888685.00408</v>
+        <v>1891337.85055</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>2254889.26206</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>2854418.9436</v>
+        <v>2869252.249770001</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>3042728.45222</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>3111782.14174</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>3018128.55</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>2737.0552</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>6670.947429999999</v>
+        <v>6670.947430000001</v>
       </c>
       <c r="E18" s="48" t="n">
         <v>5981.66314</v>
@@ -1478,22 +1449,27 @@
         <v>20907.26178</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>26693.02824</v>
+        <v>26697.26424</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>37252.46030000001</v>
+        <v>37252.4603</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>27466.86919</v>
+        <v>27499.33121</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>60055.09136999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>60324.41782</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>37902.795</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>521704.1623099999</v>
@@ -1502,76 +1478,86 @@
         <v>590289.25752</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>708348.29854</v>
+        <v>708316.8917099999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>729106.5053000001</v>
+        <v>729692.5387799999</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>714826.9754999999</v>
+        <v>716653.38222</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>716298.1785299999</v>
+        <v>720060.5406899999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>865870.6901600001</v>
+        <v>873697.3877399999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>943248.80302</v>
+        <v>943641.60312</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>1106197.50621</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1153845.55917</v>
+        <v>1163951.81765</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1362471.96206</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1394592.90132</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1372790.23</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>485596.16598</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>535829.0297000001</v>
+        <v>535829.0297</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>692232.79174</v>
+        <v>692370.4531999999</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>705254.3299199999</v>
+        <v>706069.4045599999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>697060.6334699999</v>
+        <v>698295.46923</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>684425.11679</v>
+        <v>688203.2899100001</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>803269.1751699999</v>
+        <v>812110.8852600001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>899859.17048</v>
+        <v>900131.02264</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>973245.7632799998</v>
+        <v>973245.7632800001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1104573.78585</v>
+        <v>1117304.92767</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1281736.75625</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1319389.68759</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1269970.142</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>4792.23958</v>
@@ -1604,91 +1590,106 @@
         <v>2279.11968</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>3862.51064</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>3831.86024</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>1003.516</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>90204.67021000003</v>
+        <v>90204.67021000001</v>
       </c>
       <c r="D22" s="48" t="n">
         <v>91140.01412000001</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>135065.97394</v>
+        <v>135116.09766</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>106501.09108</v>
+        <v>106553.43424</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>116155.45193</v>
+        <v>116241.78698</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>108294.00579</v>
+        <v>109004.03616</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>128108.21934</v>
+        <v>128974.57132</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>146506.66185</v>
+        <v>146507.97542</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>156662.08281</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>185297.34124</v>
+        <v>186174.62071</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>218172.74146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>224511.71732</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>232578.65</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>390599.25619</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>441082.7755999999</v>
+        <v>441082.7756000001</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>552155.3383600001</v>
+        <v>552242.8761</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>595143.3818099999</v>
+        <v>595906.1132900001</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>578281.37041</v>
+        <v>579429.87112</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>572342.88751</v>
+        <v>575411.03026</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>672389.29425</v>
+        <v>680364.6523600001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>736083.98246</v>
+        <v>736354.52105</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>815211.44815</v>
+        <v>815211.4481500001</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>916997.3249300001</v>
+        <v>928851.18728</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1059701.50415</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1091046.11003</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1036387.976</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>36107.99633</v>
@@ -1697,37 +1698,42 @@
         <v>54460.22781999999</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>16115.50679999999</v>
+        <v>15946.43850999999</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>23852.17538</v>
+        <v>23623.13422</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>17766.34203</v>
+        <v>18357.91299</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>31873.06174</v>
+        <v>31857.25078</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>62601.51499</v>
+        <v>61586.50248</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>43389.63254</v>
+        <v>43510.58047999999</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>132951.74293</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>49271.77332000001</v>
+        <v>46646.88998000001</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>80735.20581000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>75203.21373000002</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>102820.088</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>63240.55442</v>
@@ -1739,34 +1745,39 @@
         <v>71865.31258</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>66664.32734</v>
+        <v>66664.91722999999</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>76686.29247</v>
+        <v>76704.22817999999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>78046.83796999999</v>
+        <v>78099.14481999999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>92570.01203</v>
+        <v>93203.81523999998</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>83014.72285999999</v>
+        <v>83030.27868</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>92798.3768</v>
+        <v>92798.37680000001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>176767.2543199999</v>
+        <v>177078.02215</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>146012.19918</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>146035.41452</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>210108.502</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>10740.9041</v>
@@ -1784,10 +1795,10 @@
         <v>1453.50634</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>619.9610900000001</v>
+        <v>619.96109</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>591.58431</v>
+        <v>591.5843100000001</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>368.92969</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>1053.35469</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>689.8339999999999</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>1465.331</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>481.03429</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>1890.695</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>5575.7966</v>
@@ -1856,16 +1877,16 @@
         <v>6704.59842</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>8326.759529999999</v>
+        <v>8326.78184</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>7217.38481</v>
+        <v>7229.60051</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>9052.719849999998</v>
+        <v>9094.70357</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>10982.00259</v>
+        <v>11070.86958</v>
       </c>
       <c r="J28" s="48" t="n">
         <v>11096.30114</v>
@@ -1874,22 +1895,27 @@
         <v>16736.05178</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>23147.54153</v>
+        <v>23163.34985</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>26977.92291</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>27041.9363</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>22050.613</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>638.1695100000001</v>
+        <v>638.1695099999999</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>515.09097</v>
+        <v>515.0909700000001</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>1478.60118</v>
@@ -1901,7 +1927,7 @@
         <v>1522.43937</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>688.3761400000001</v>
+        <v>688.37614</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>295.25474</v>
@@ -1910,25 +1936,30 @@
         <v>519.04666</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>690.79261</v>
+        <v>690.7926100000001</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>6807.89</v>
+        <v>6807.890000000001</v>
       </c>
       <c r="M29" s="48" t="n">
         <v>263.24745</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>388.742</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>864.1121699999999</v>
+        <v>864.11217</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>905.3728</v>
+        <v>905.3728000000001</v>
       </c>
       <c r="E30" s="48" t="n">
         <v>962.0017400000002</v>
@@ -1943,43 +1974,48 @@
         <v>2871.65907</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>473.16681</v>
+        <v>473.1668100000001</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>2406.54572</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>883.9923500000001</v>
+        <v>883.99235</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>1434.94162</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>3706.168630000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>3706.16863</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>1928.729</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>3668.81848</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>52687.15549999999</v>
+        <v>52687.1555</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>410.38391</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>472.58791</v>
+        <v>473.15549</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>189.48339</v>
+        <v>190.44966</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>412.8037</v>
+        <v>412.8036999999999</v>
       </c>
       <c r="I31" s="48" t="n">
         <v>319.39808</v>
@@ -1994,13 +2030,18 @@
         <v>361.36828</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>11009.76841</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>11010.28328</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>888.302</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>28384.17553</v>
@@ -2015,13 +2056,13 @@
         <v>32248.05441</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>42882.14126999999</v>
+        <v>42886.07608</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>35289.91127</v>
+        <v>35299.61663999999</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>53510.14042000001</v>
+        <v>53967.5269</v>
       </c>
       <c r="J32" s="48" t="n">
         <v>23788.86158</v>
@@ -2030,16 +2071,21 @@
         <v>29439.67015</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>102495.93714</v>
+        <v>102664.47852</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>49370.7553</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>49476.24476000001</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>85204.477</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>3.29058</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>284.62313</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>170.449</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>52.10457000000001</v>
@@ -2090,7 +2141,7 @@
         <v>133.8621</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>79.27759999999999</v>
+        <v>79.27760000000001</v>
       </c>
       <c r="G34" s="48" t="n">
         <v>39.6401</v>
@@ -2111,13 +2162,18 @@
         <v>314.59617</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>148.94169</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>149.07601</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>191.91</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>11847.85188</v>
@@ -2132,31 +2188,36 @@
         <v>22295.9916</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>22029.47726</v>
+        <v>22030.29619</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>25367.70062</v>
+        <v>25368.31838</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>24385.0013</v>
+        <v>24472.55104</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>38499.48146</v>
+        <v>38515.03728</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>38219.45809</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>41325.00136</v>
+        <v>41451.41948999999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>52716.38268</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>52569.44598</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>96704.751</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>36924.52531</v>
@@ -2168,34 +2229,39 @@
         <v>76650.3974</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>37015.78421</v>
+        <v>37020.46079</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>71633.01743000001</v>
+        <v>71643.57715999999</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>58542.53593</v>
+        <v>58574.78634999999</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>94357.84893000001</v>
+        <v>94538.2242</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>65337.0937</v>
+        <v>65392.70763</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>61247.10378000001</v>
+        <v>61247.10378</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>124139.61873</v>
+        <v>124303.70039</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>69159.36320000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>69462.65178</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>127434.22</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>989.12666</v>
@@ -2204,7 +2270,7 @@
         <v>735.03201</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>984.05645</v>
+        <v>984.0564499999999</v>
       </c>
       <c r="F37" s="48" t="n">
         <v>1087.22448</v>
@@ -2213,7 +2279,7 @@
         <v>1380.80629</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>1320.3454</v>
+        <v>1324.60981</v>
       </c>
       <c r="I37" s="48" t="n">
         <v>1813.35199</v>
@@ -2225,25 +2291,30 @@
         <v>2285.69587</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>4250.45559</v>
+        <v>4257.562970000001</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>3727.61128</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>3793.80732</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>4874.824</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>4767.029229999999</v>
+        <v>4767.02923</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>4605.02356</v>
+        <v>4605.023559999999</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>4338.476409999999</v>
+        <v>4338.47641</v>
       </c>
       <c r="F38" s="48" t="n">
         <v>1536.33072</v>
@@ -2252,7 +2323,7 @@
         <v>1497.59033</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>798.4166299999999</v>
+        <v>798.4166300000002</v>
       </c>
       <c r="I38" s="48" t="n">
         <v>3694.8282</v>
@@ -2261,19 +2332,24 @@
         <v>4459.43461</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>6610.60949</v>
+        <v>6610.609489999999</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>6730.51066</v>
+        <v>6730.510660000001</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>9291.01002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>9289.685019999999</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>7197.83</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>25.17365</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>192.24624</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>53.978</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>27006.40006</v>
@@ -2324,34 +2405,39 @@
         <v>59353.49828</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>25204.49806</v>
+        <v>25204.60072</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>59854.88239999999</v>
+        <v>59863.80192000001</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>38073.28193</v>
+        <v>38077.73916999999</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>71002.79766</v>
+        <v>71144.93892</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>28509.08313</v>
+        <v>28509.08348</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>33179.63151</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>98873.30306000001</v>
+        <v>99005.90353</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>38396.58705</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>38575.65882</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>59304.841</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>44.12143</v>
@@ -2369,7 +2455,7 @@
         <v>171.40519</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>231.84002</v>
+        <v>255.25004</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>60.21393</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>155.44852</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>62.281</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>80.00415000000001</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>80.62075</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>273.792</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>4012.67013</v>
@@ -2441,34 +2537,39 @@
         <v>11894.01949</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>8578.463369999999</v>
+        <v>8583.03729</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>8515.6865</v>
+        <v>8517.326709999999</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>17539.67744</v>
+        <v>17539.79619</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>17687.6142</v>
+        <v>17725.84821</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>24299.14538</v>
+        <v>24354.75896</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>18839.72145</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>13503.46173</v>
+        <v>13527.83554</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>17315.83934</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>17375.18511</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>55666.674</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>36268.37185</v>
@@ -2477,37 +2578,42 @@
         <v>28881.9296</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>45427.25024</v>
+        <v>45427.25023999999</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>38010.15468</v>
+        <v>38081.04431</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>35337.97023</v>
+        <v>35834.25764</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>38633.97388</v>
+        <v>39490.07962999999</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>52582.07691</v>
+        <v>52980.74696</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>70906.86803</v>
+        <v>70920.98765000001</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>92641.26858</v>
+        <v>92641.26858000002</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>105280.88998</v>
+        <v>105362.93509</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>115390.75196</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>117236.28719</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>96671.89599999999</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>35313.00169</v>
@@ -2516,37 +2622,42 @@
         <v>28293.25402</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>44557.94274</v>
+        <v>44557.94273999999</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>36271.70471</v>
+        <v>36342.59434</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>34273.50996</v>
+        <v>34767.67783</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>38077.08808</v>
+        <v>38918.93844</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>51282.56857000001</v>
+        <v>51656.99407</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>60490.20109</v>
+        <v>60504.32071000001</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>72632.03993000001</v>
+        <v>72632.03993</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>93387.99072999999</v>
+        <v>93470.03584</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>111367.42466</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>113071.14193</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>93975.223</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>955.3701599999999</v>
@@ -2561,13 +2672,13 @@
         <v>1738.44997</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>1064.46027</v>
+        <v>1066.57981</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>556.8858</v>
+        <v>571.1411899999999</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1299.50834</v>
+        <v>1323.75289</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>10416.66694</v>
@@ -2579,52 +2690,62 @@
         <v>11892.89925</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>4023.3273</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>4165.145259999999</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>2696.673</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>26155.65358999999</v>
+        <v>26155.65359000001</v>
       </c>
       <c r="D47" s="47" t="n">
         <v>104013.40644</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-34096.82825999999</v>
+        <v>-34265.89655</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>15490.56383000001</v>
+        <v>15186.54635</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-12518.35316</v>
+        <v>-12415.69363</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>12743.3899</v>
+        <v>11891.52962</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>8231.601180000007</v>
+        <v>7271.346560000004</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-9839.606329999984</v>
+        <v>-9772.836120000009</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>71861.74737000001</v>
+        <v>71861.74736999998</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-3381.481070000008</v>
+        <v>-5941.723350000001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>42197.28982999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>34539.68928</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>88822.474</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>11590.40662</v>
@@ -2633,37 +2754,42 @@
         <v>16272.15203</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>30110.63587</v>
+        <v>30110.63587000001</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>23528.75336</v>
+        <v>23559.96696</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>24990.72918</v>
+        <v>25205.23798</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>28335.19849</v>
+        <v>28426.87245</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>33790.06755</v>
+        <v>33891.284</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>56905.48776</v>
+        <v>57201.00268000001</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>59052.85972</v>
+        <v>59052.85972000001</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>68925.27293000001</v>
+        <v>69036.68044</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>72133.48564</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>72899.06229999999</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>83965.81200000001</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>270.53016</v>
@@ -2678,31 +2804,36 @@
         <v>1308.11044</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>228.96929</v>
+        <v>268.9062699999999</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>377.4992</v>
+        <v>377.95143</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>843.2863500000001</v>
+        <v>843.2867100000001</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>298.84641</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>875.65886</v>
+        <v>875.6588599999999</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>954.8976699999999</v>
+        <v>954.8976700000001</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>764.1115</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>835.6058699999999</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>756.427</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>11319.87646</v>
@@ -2714,34 +2845,39 @@
         <v>28694.08571</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>22220.64292</v>
+        <v>22251.85652</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>24761.75989</v>
+        <v>24936.33171000001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>27957.69929</v>
+        <v>28048.92102</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>32946.7812</v>
+        <v>33047.99729</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>56606.64135</v>
+        <v>56902.15627000001</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>58177.20086</v>
+        <v>58177.20085999999</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>67970.37526</v>
+        <v>68081.78276999999</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>71369.37414</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>72063.45642999999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>83209.38499999999</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>16892.99224</v>
@@ -2753,40 +2889,45 @@
         <v>125008.46825</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>37534.71320000001</v>
+        <v>37618.86695</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>39765.17985</v>
+        <v>39855.84193</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>69036.55478999999</v>
+        <v>69191.00678</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>48323.2524</v>
+        <v>48410.57904</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>116702.52347</v>
+        <v>116843.87759</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>58625.59197</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>109174.84618</v>
+        <v>109719.48936</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>45830.08697</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>48243.92883</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>57042.204</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>472.44013</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>350.1061800000001</v>
+        <v>350.10618</v>
       </c>
       <c r="E52" s="48" t="n">
         <v>245.53921</v>
@@ -2801,7 +2942,7 @@
         <v>529.7863100000001</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>753.14585</v>
+        <v>753.1458499999999</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>1133.32429</v>
@@ -2810,16 +2951,21 @@
         <v>1452.03565</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>919.56638</v>
+        <v>958.64277</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1047.98005</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>1079.16172</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>1305.75</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>1422.84745</v>
@@ -2828,7 +2974,7 @@
         <v>2326.99475</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>3386.17775</v>
+        <v>3386.177749999999</v>
       </c>
       <c r="F53" s="48" t="n">
         <v>3632.12375</v>
@@ -2837,10 +2983,10 @@
         <v>3585.2945</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>2529.48332</v>
+        <v>2544.75269</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>3498.33792</v>
+        <v>3498.405920000001</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>1568.28822</v>
@@ -2849,16 +2995,21 @@
         <v>1378.15432</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>2415.0471</v>
+        <v>2446.94337</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1917.9028</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>1961.36645</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1918.071</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>14997.70466</v>
@@ -2870,73 +3021,83 @@
         <v>121376.75129</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>33657.88279</v>
+        <v>33742.03654</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>35367.4306</v>
+        <v>35458.09268</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>65977.28516</v>
+        <v>66116.46778000001</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>44071.76863</v>
+        <v>44159.02727</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>114000.91096</v>
+        <v>114142.26508</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>55795.402</v>
+        <v>55795.40200000002</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>105840.2327</v>
+        <v>106313.90322</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>42864.20411999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>45203.40066000001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>53818.383</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>20853.06797</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>96635.59461999999</v>
+        <v>96635.59462</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-128994.66064</v>
+        <v>-129163.72893</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>1484.603989999998</v>
+        <v>1127.646359999997</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-27292.80383</v>
+        <v>-27066.29758000001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-27957.9664</v>
+        <v>-28872.60471</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-6301.583670000002</v>
+        <v>-7247.94848</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-69636.64203999999</v>
+        <v>-69415.71103000001</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>72289.01512000001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-43631.05432000002</v>
+        <v>-46624.53227000001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>68500.68849999997</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>59194.82275</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>115746.082</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>17702.84866</v>
@@ -2951,67 +3112,75 @@
         <v>25115.45099</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>22847.69558</v>
+        <v>22848.0452</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>25856.91544</v>
+        <v>25870.14309</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>33042.66824</v>
+        <v>33056.40925</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>35113.35140000001</v>
+        <v>35154.31812</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>44682.66945</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>58799.91878</v>
+        <v>59094.15064</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>65443.46964</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>66149.35060999999</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>80435.298</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>3150.219309999997</v>
+        <v>3150.21931</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>71572.16567</v>
+        <v>71572.16566999999</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-157589.47744</v>
+        <v>-157758.54573</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-23630.847</v>
+        <v>-23987.80463</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-50140.49941</v>
+        <v>-49914.34278</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-53814.88184</v>
+        <v>-54742.7478</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-39344.25191</v>
+        <v>-40304.35773</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-104749.99344</v>
+        <v>-104570.02915</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>27606.34567</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-102430.9731</v>
+        <v>-105718.68291</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>3057.218860000003</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-6954.527859999999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>35310.784</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>6891</v>
@@ -3038,34 +3210,37 @@
         <v>7126</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>7525</v>
+        <v>7531</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>7479</v>
+        <v>7492</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>6430</v>
+        <v>6452</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>5291</v>
+        <v>5327</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>5210</v>
+        <v>5257</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>5407</v>
+        <v>5433</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>5863</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>5830</v>
+        <v>6089</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>6117</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>6608</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>7007</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>